--- a/biology/Zoologie/Callicore_astarte/Callicore_astarte.xlsx
+++ b/biology/Zoologie/Callicore_astarte/Callicore_astarte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callicore astarte est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae et du genre Callicore.
 </t>
@@ -511,13 +523,85 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Callicore astarte a été décrit par Pieter Cramer en 1779 sous le nom initial de Papilio astarte[1].
-Noms vernaculaires
-Callicore astarte se nomme Astarte Eighty-eight en anglais et Callicore astarte casta Blue-stitched Eighty-eight[2].
-Sous-espèces
- Callicore astarte astarte ; présent au Brésil, au Surinam et en Guyane.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore astarte a été décrit par Pieter Cramer en 1779 sous le nom initial de Papilio astarte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Callicore_astarte</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_astarte</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore astarte se nomme Astarte Eighty-eight en anglais et Callicore astarte casta Blue-stitched Eighty-eight.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Callicore_astarte</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_astarte</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore astarte astarte ; présent au Brésil, au Surinam et en Guyane.
  Callicore astarte antillena (Kaye, 1914); présent à Trinité-et-Tobago.
  Callicore astarte astartoides (Dillon, 1948); présent en Bolivie.
  Callicore astarte casta (Salvin, 1869); présent au Mexique
@@ -527,35 +611,37 @@
  Callicore astarte patelina (Hewitson, 1853); présent au Mexique, au Costa Rica et au Guatemala
  Callicore astarte selima (Guénee, 1872); présent au Brésil.
  Callicore astarte staudingeri (Dillon, 1948); présent au Venezuela.
- Callicore astarte stratiotes (C. &amp; R. Felder, 1861); présent au Brésil[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+ Callicore astarte stratiotes (C. &amp; R. Felder, 1861); présent au Brésil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Callicore_astarte</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Callicore_astarte</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Callicore astarte est un papillon d'une envergure d'environ 43 mm, au dessus des ailes antérieures avec une flaque de couleur orange à la base et le reste de l'aile marron à noir et des ailes postérieures bleu violet très largement bordées de marron à noir .
 Le revers des ailes antérieures est semblable au dessus en plus clair alors que les ailes postérieures sont de couleur marron à noir ornementées de lignes beige dont une submarginale doublée d'une ligne de marques bleues et de points du même bleu dans un espace limité par une ligne beige.
@@ -563,64 +649,102 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Callicore_astarte</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Callicore_astarte</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Callicore_astarte</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Callicore_astarte</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Callicore astarte est présent au Mexique, au Guatemala, au Honduras, en Colombie, au Venezuela, à Trinité-et-Tobago, en Équateur, en Bolivie, au Pérou, au Brésil et en Guyane[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore astarte est présent au Mexique, au Guatemala, au Honduras, en Colombie, au Venezuela, à Trinité-et-Tobago, en Équateur, en Bolivie, au Pérou, au Brésil et en Guyane.
 Sur les autres projets Wikimedia :
 Callicore astarte, sur Wikimedia CommonsCallicore astarte, sur Wikispecies
-Biotope
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Callicore_astarte</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_astarte</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
